--- a/static/media/econometrics/lecture 02/OLS (simple example).xlsx
+++ b/static/media/econometrics/lecture 02/OLS (simple example).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/content/econometrics/Lecture 02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/lecture 02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F664532-745B-410A-BFA2-96BDBE3584F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{7F664532-745B-410A-BFA2-96BDBE3584F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83303E6B-6E27-4A8A-86A2-A8DF0DEB81C8}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15195" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15195" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple OLS example" sheetId="1" r:id="rId1"/>
@@ -102,8 +102,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -390,55 +390,55 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,13 +459,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,7 +549,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="00447C"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -2260,7 +2260,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,11 +2338,11 @@
         <v>2930</v>
       </c>
       <c r="D3" s="13">
-        <f>(B3-Y_bar)</f>
+        <f t="shared" ref="D3:D34" si="0">(B3-Y_bar)</f>
         <v>0.70270270270270174</v>
       </c>
       <c r="E3" s="13">
-        <f>(C3-x_bar)</f>
+        <f t="shared" ref="E3:E34" si="1">(C3-x_bar)</f>
         <v>-89.459459459459595</v>
       </c>
       <c r="F3" s="13">
@@ -2354,7 +2354,7 @@
         <v>8002.9948867786943</v>
       </c>
       <c r="H3" s="15">
-        <f>beta_0+beta_1*C3</f>
+        <f t="shared" ref="H3:H34" si="2">beta_0+beta_1*C3</f>
         <v>21.834831171559941</v>
       </c>
       <c r="I3" s="16">
@@ -2373,27 +2373,27 @@
         <v>3350</v>
       </c>
       <c r="D4" s="17">
-        <f>(B4-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-4.2972972972972983</v>
       </c>
       <c r="E4" s="17">
-        <f>(C4-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>330.54054054054041</v>
       </c>
       <c r="F4" s="17">
-        <f t="shared" ref="F4:F67" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F67" si="3">D4*E4</f>
         <v>-1420.4309715120523</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G67" si="1">E4^2</f>
+        <f t="shared" ref="G4:G67" si="4">E4^2</f>
         <v>109257.04894083264</v>
       </c>
       <c r="H4" s="19">
-        <f>beta_0+beta_1*C4</f>
+        <f t="shared" si="2"/>
         <v>19.311182710520225</v>
       </c>
       <c r="I4" s="20">
-        <f t="shared" ref="I4:I67" si="2">B4-H4</f>
+        <f t="shared" ref="I4:I67" si="5">B4-H4</f>
         <v>-2.3111827105202245</v>
       </c>
     </row>
@@ -2408,27 +2408,27 @@
         <v>2640</v>
       </c>
       <c r="D5" s="17">
-        <f>(B5-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>0.70270270270270174</v>
       </c>
       <c r="E5" s="17">
-        <f>(C5-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>-379.45945945945959</v>
       </c>
       <c r="F5" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-266.64718772826853</v>
       </c>
       <c r="G5" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>143989.48137326527</v>
       </c>
       <c r="H5" s="19">
-        <f>beta_0+beta_1*C5</f>
+        <f t="shared" si="2"/>
         <v>23.577350347039747</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.5773503470397472</v>
       </c>
     </row>
@@ -2443,27 +2443,27 @@
         <v>3250</v>
       </c>
       <c r="D6" s="17">
-        <f>(B6-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-1.2972972972972983</v>
       </c>
       <c r="E6" s="17">
-        <f>(C6-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>230.54054054054041</v>
       </c>
       <c r="F6" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-299.07962016070127</v>
       </c>
       <c r="G6" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53148.940832724555</v>
       </c>
       <c r="H6" s="19">
-        <f>beta_0+beta_1*C6</f>
+        <f t="shared" si="2"/>
         <v>19.912051391720155</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.7948608279845075E-2</v>
       </c>
     </row>
@@ -2478,27 +2478,27 @@
         <v>4080</v>
       </c>
       <c r="D7" s="17">
-        <f>(B7-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-6.2972972972972983</v>
       </c>
       <c r="E7" s="17">
-        <f>(C7-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>1060.5405405405404</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-6678.5390796201609</v>
       </c>
       <c r="G7" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1124746.2381300216</v>
       </c>
       <c r="H7" s="19">
-        <f>beta_0+beta_1*C7</f>
+        <f t="shared" si="2"/>
         <v>14.924841337760714</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.515866223928569E-2</v>
       </c>
     </row>
@@ -2513,27 +2513,27 @@
         <v>3670</v>
       </c>
       <c r="D8" s="17">
-        <f>(B8-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E8" s="17">
-        <f>(C8-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>650.54054054054041</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2145.0255661066471</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>423202.99488677847</v>
       </c>
       <c r="H8" s="19">
-        <f>beta_0+beta_1*C8</f>
+        <f t="shared" si="2"/>
         <v>17.388402930680439</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61159706931956137</v>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
         <v>2230</v>
       </c>
       <c r="D9" s="17">
-        <f>(B9-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>4.7027027027027017</v>
       </c>
       <c r="E9" s="17">
-        <f>(C9-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>-789.45945945945959</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3712.5931336742146</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>623246.23813002207</v>
       </c>
       <c r="H9" s="19">
-        <f>beta_0+beta_1*C9</f>
+        <f t="shared" si="2"/>
         <v>26.040911939959472</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-4.0911939959471511E-2</v>
       </c>
     </row>
@@ -2583,27 +2583,27 @@
         <v>3280</v>
       </c>
       <c r="D10" s="17">
-        <f>(B10-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-1.2972972972972983</v>
       </c>
       <c r="E10" s="17">
-        <f>(C10-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>260.54054054054041</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-337.99853907962023</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>67881.373265156974</v>
       </c>
       <c r="H10" s="19">
-        <f>beta_0+beta_1*C10</f>
+        <f t="shared" si="2"/>
         <v>19.731790787360175</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.26820921263982456</v>
       </c>
     </row>
@@ -2618,27 +2618,27 @@
         <v>3880</v>
       </c>
       <c r="D11" s="17">
-        <f>(B11-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-5.2972972972972983</v>
       </c>
       <c r="E11" s="17">
-        <f>(C11-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>860.54054054054041</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-4558.5390796201609</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>740530.02191380551</v>
       </c>
       <c r="H11" s="19">
-        <f>beta_0+beta_1*C11</f>
+        <f t="shared" si="2"/>
         <v>16.126578700160579</v>
       </c>
       <c r="I11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.12657870016057871</v>
       </c>
     </row>
@@ -2653,27 +2653,27 @@
         <v>3400</v>
       </c>
       <c r="D12" s="17">
-        <f>(B12-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E12" s="17">
-        <f>(C12-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>380.54054054054041</v>
       </c>
       <c r="F12" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-874.21475529583643</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>144811.10299488666</v>
       </c>
       <c r="H12" s="19">
-        <f>beta_0+beta_1*C12</f>
+        <f t="shared" si="2"/>
         <v>19.010748369920258</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.0748369920257517E-2</v>
       </c>
     </row>
@@ -2688,27 +2688,27 @@
         <v>4330</v>
       </c>
       <c r="D13" s="17">
-        <f>(B13-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-7.2972972972972983</v>
       </c>
       <c r="E13" s="17">
-        <f>(C13-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>1310.5405405405404</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9563.4039444850259</v>
       </c>
       <c r="G13" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1717516.5084002919</v>
       </c>
       <c r="H13" s="19">
-        <f>beta_0+beta_1*C13</f>
+        <f t="shared" si="2"/>
         <v>13.422669634760883</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.57733036523911707</v>
       </c>
     </row>
@@ -2723,27 +2723,27 @@
         <v>3900</v>
       </c>
       <c r="D14" s="17">
-        <f>(B14-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-7.2972972972972983</v>
       </c>
       <c r="E14" s="17">
-        <f>(C14-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>880.54054054054041</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-6425.5661066471876</v>
       </c>
       <c r="G14" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>775351.64353542705</v>
       </c>
       <c r="H14" s="19">
-        <f>beta_0+beta_1*C14</f>
+        <f t="shared" si="2"/>
         <v>16.006404963920595</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.0064049639205948</v>
       </c>
     </row>
@@ -2758,27 +2758,27 @@
         <v>4290</v>
       </c>
       <c r="D15" s="17">
-        <f>(B15-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-0.29729729729729826</v>
       </c>
       <c r="E15" s="17">
-        <f>(C15-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>1270.5405405405404</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-377.72826880935105</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1614273.2651570486</v>
       </c>
       <c r="H15" s="19">
-        <f>beta_0+beta_1*C15</f>
+        <f t="shared" si="2"/>
         <v>13.663017107240858</v>
       </c>
       <c r="I15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.3369828927591421</v>
       </c>
     </row>
@@ -2793,27 +2793,27 @@
         <v>2110</v>
       </c>
       <c r="D16" s="17">
-        <f>(B16-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>7.7027027027027017</v>
       </c>
       <c r="E16" s="17">
-        <f>(C16-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>-909.45945945945959</v>
       </c>
       <c r="F16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7005.2958363769176</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>827116.50840029249</v>
       </c>
       <c r="H16" s="19">
-        <f>beta_0+beta_1*C16</f>
+        <f t="shared" si="2"/>
         <v>26.761954357399389</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.2380456426006106</v>
       </c>
     </row>
@@ -2828,27 +2828,27 @@
         <v>3690</v>
       </c>
       <c r="D17" s="17">
-        <f>(B17-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-5.2972972972972983</v>
       </c>
       <c r="E17" s="17">
-        <f>(C17-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>670.54054054054041</v>
       </c>
       <c r="F17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3552.0525931336742</v>
       </c>
       <c r="G17" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>449624.61650840013</v>
       </c>
       <c r="H17" s="19">
-        <f>beta_0+beta_1*C17</f>
+        <f t="shared" si="2"/>
         <v>17.268229194440451</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.2682291944404511</v>
       </c>
     </row>
@@ -2863,27 +2863,27 @@
         <v>3180</v>
       </c>
       <c r="D18" s="17">
-        <f>(B18-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>0.70270270270270174</v>
       </c>
       <c r="E18" s="17">
-        <f>(C18-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>160.54054054054041</v>
       </c>
       <c r="F18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>112.81227173119041</v>
       </c>
       <c r="G18" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25773.265157048896</v>
       </c>
       <c r="H18" s="19">
-        <f>beta_0+beta_1*C18</f>
+        <f t="shared" si="2"/>
         <v>20.332659468560109</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6673405314398906</v>
       </c>
     </row>
@@ -2898,27 +2898,27 @@
         <v>3220</v>
       </c>
       <c r="D19" s="17">
-        <f>(B19-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>0.70270270270270174</v>
       </c>
       <c r="E19" s="17">
-        <f>(C19-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>200.54054054054041</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>140.92037983929848</v>
       </c>
       <c r="G19" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40216.508400292128</v>
       </c>
       <c r="H19" s="19">
-        <f>beta_0+beta_1*C19</f>
+        <f t="shared" si="2"/>
         <v>20.092311996080138</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.907688003919862</v>
       </c>
     </row>
@@ -2933,27 +2933,27 @@
         <v>2750</v>
       </c>
       <c r="D20" s="17">
-        <f>(B20-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>2.7027027027027017</v>
       </c>
       <c r="E20" s="17">
-        <f>(C20-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>-269.45945945945959</v>
       </c>
       <c r="F20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-728.26880934989049</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>72608.400292184146</v>
       </c>
       <c r="H20" s="19">
-        <f>beta_0+beta_1*C20</f>
+        <f t="shared" si="2"/>
         <v>22.916394797719821</v>
       </c>
       <c r="I20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0836052022801788</v>
       </c>
     </row>
@@ -2968,27 +2968,27 @@
         <v>3430</v>
       </c>
       <c r="D21" s="17">
-        <f>(B21-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E21" s="17">
-        <f>(C21-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>410.54054054054041</v>
       </c>
       <c r="F21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-943.13367421475539</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>168543.53542731909</v>
       </c>
       <c r="H21" s="19">
-        <f>beta_0+beta_1*C21</f>
+        <f t="shared" si="2"/>
         <v>18.830487765560278</v>
       </c>
       <c r="I21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16951223443972196</v>
       </c>
     </row>
@@ -3003,27 +3003,27 @@
         <v>2120</v>
       </c>
       <c r="D22" s="17">
-        <f>(B22-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>8.7027027027027017</v>
       </c>
       <c r="E22" s="17">
-        <f>(C22-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>-899.45945945945959</v>
       </c>
       <c r="F22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7827.7282688093501</v>
       </c>
       <c r="G22" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>809027.31921110325</v>
       </c>
       <c r="H22" s="19">
-        <f>beta_0+beta_1*C22</f>
+        <f t="shared" si="2"/>
         <v>26.701867489279394</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.2981325107206061</v>
       </c>
     </row>
@@ -3038,27 +3038,27 @@
         <v>3600</v>
       </c>
       <c r="D23" s="17">
-        <f>(B23-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E23" s="17">
-        <f>(C23-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>580.54054054054041</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1914.2147552958365</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>337027.31921110285</v>
       </c>
       <c r="H23" s="19">
-        <f>beta_0+beta_1*C23</f>
+        <f t="shared" si="2"/>
         <v>17.809011007520393</v>
       </c>
       <c r="I23" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.19098899247960688</v>
       </c>
     </row>
@@ -3073,27 +3073,27 @@
         <v>3600</v>
       </c>
       <c r="D24" s="17">
-        <f>(B24-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-5.2972972972972983</v>
       </c>
       <c r="E24" s="17">
-        <f>(C24-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>580.54054054054041</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3075.2958363769171</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>337027.31921110285</v>
       </c>
       <c r="H24" s="19">
-        <f>beta_0+beta_1*C24</f>
+        <f t="shared" si="2"/>
         <v>17.809011007520393</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.8090110075203931</v>
       </c>
     </row>
@@ -3108,27 +3108,27 @@
         <v>3740</v>
       </c>
       <c r="D25" s="17">
-        <f>(B25-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-4.2972972972972983</v>
       </c>
       <c r="E25" s="17">
-        <f>(C25-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>720.54054054054041</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3096.3769174579988</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>519178.67056245415</v>
       </c>
       <c r="H25" s="19">
-        <f>beta_0+beta_1*C25</f>
+        <f t="shared" si="2"/>
         <v>16.967794853840488</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.220514615951231E-2</v>
       </c>
     </row>
@@ -3143,27 +3143,27 @@
         <v>1800</v>
       </c>
       <c r="D26" s="17">
-        <f>(B26-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>6.7027027027027017</v>
       </c>
       <c r="E26" s="17">
-        <f>(C26-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>-1219.4594594594596</v>
       </c>
       <c r="F26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8173.6742147552959</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1487081.3732651575</v>
       </c>
       <c r="H26" s="19">
-        <f>beta_0+beta_1*C26</f>
+        <f t="shared" si="2"/>
         <v>28.62464726911918</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.62464726911917978</v>
       </c>
     </row>
@@ -3178,27 +3178,27 @@
         <v>2650</v>
       </c>
       <c r="D27" s="17">
-        <f>(B27-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-0.29729729729729826</v>
       </c>
       <c r="E27" s="17">
-        <f>(C27-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>-369.45945945945959</v>
       </c>
       <c r="F27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>109.83929875821808</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>136500.29218407607</v>
       </c>
       <c r="H27" s="19">
-        <f>beta_0+beta_1*C27</f>
+        <f t="shared" si="2"/>
         <v>23.517263478919752</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.5172634789197517</v>
       </c>
     </row>
@@ -3213,27 +3213,27 @@
         <v>4840</v>
       </c>
       <c r="D28" s="17">
-        <f>(B28-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-9.2972972972972983</v>
       </c>
       <c r="E28" s="17">
-        <f>(C28-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>1820.5405405405404</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-16926.106647187728</v>
       </c>
       <c r="G28" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3314367.8597516431</v>
       </c>
       <c r="H28" s="19">
-        <f>beta_0+beta_1*C28</f>
+        <f t="shared" si="2"/>
         <v>10.358239360641225</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6417606393587754</v>
       </c>
     </row>
@@ -3248,27 +3248,27 @@
         <v>4720</v>
       </c>
       <c r="D29" s="17">
-        <f>(B29-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-9.2972972972972983</v>
       </c>
       <c r="E29" s="17">
-        <f>(C29-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>1700.5405405405404</v>
       </c>
       <c r="F29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-15810.430971512053</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2891838.1300219134</v>
       </c>
       <c r="H29" s="19">
-        <f>beta_0+beta_1*C29</f>
+        <f t="shared" si="2"/>
         <v>11.079281778081146</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.92071822191885389</v>
       </c>
     </row>
@@ -3283,27 +3283,27 @@
         <v>3830</v>
       </c>
       <c r="D30" s="17">
-        <f>(B30-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-7.2972972972972983</v>
       </c>
       <c r="E30" s="17">
-        <f>(C30-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>810.54054054054041</v>
       </c>
       <c r="F30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5914.7552958363767</v>
       </c>
       <c r="G30" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>656975.96785975143</v>
       </c>
       <c r="H30" s="19">
-        <f>beta_0+beta_1*C30</f>
+        <f t="shared" si="2"/>
         <v>16.427013040760546</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.4270130407605457</v>
       </c>
     </row>
@@ -3318,27 +3318,27 @@
         <v>2580</v>
       </c>
       <c r="D31" s="17">
-        <f>(B31-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>0.70270270270270174</v>
       </c>
       <c r="E31" s="17">
-        <f>(C31-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>-439.45945945945959</v>
       </c>
       <c r="F31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-308.80934989043067</v>
       </c>
       <c r="G31" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>193124.61650840042</v>
       </c>
       <c r="H31" s="19">
-        <f>beta_0+beta_1*C31</f>
+        <f t="shared" si="2"/>
         <v>23.937871555759706</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.9378715557597062</v>
       </c>
     </row>
@@ -3353,27 +3353,27 @@
         <v>4060</v>
       </c>
       <c r="D32" s="17">
-        <f>(B32-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-7.2972972972972983</v>
       </c>
       <c r="E32" s="17">
-        <f>(C32-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>1040.5405405405404</v>
       </c>
       <c r="F32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7593.133674214755</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1082724.6165084001</v>
       </c>
       <c r="H32" s="19">
-        <f>beta_0+beta_1*C32</f>
+        <f t="shared" si="2"/>
         <v>15.045015074000702</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.0450150740007018</v>
       </c>
     </row>
@@ -3388,27 +3388,27 @@
         <v>3720</v>
       </c>
       <c r="D33" s="17">
-        <f>(B33-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-6.2972972972972983</v>
       </c>
       <c r="E33" s="17">
-        <f>(C33-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>700.54054054054041</v>
       </c>
       <c r="F33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-4411.5120525931334</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>490757.04894083255</v>
       </c>
       <c r="H33" s="19">
-        <f>beta_0+beta_1*C33</f>
+        <f t="shared" si="2"/>
         <v>17.087968590080472</v>
       </c>
       <c r="I33" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.0879685900804716</v>
       </c>
     </row>
@@ -3423,27 +3423,27 @@
         <v>3370</v>
       </c>
       <c r="D34" s="17">
-        <f>(B34-Y_bar)</f>
+        <f t="shared" si="0"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E34" s="17">
-        <f>(C34-x_bar)</f>
+        <f t="shared" si="1"/>
         <v>350.54054054054041</v>
       </c>
       <c r="F34" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1155.836376917458</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>122878.67056245425</v>
       </c>
       <c r="H34" s="19">
-        <f>beta_0+beta_1*C34</f>
+        <f t="shared" si="2"/>
         <v>19.191008974280237</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.191008974280237</v>
       </c>
     </row>
@@ -3458,27 +3458,27 @@
         <v>4130</v>
       </c>
       <c r="D35" s="17">
-        <f>(B35-Y_bar)</f>
+        <f t="shared" ref="D35:D66" si="6">(B35-Y_bar)</f>
         <v>-7.2972972972972983</v>
       </c>
       <c r="E35" s="17">
-        <f>(C35-x_bar)</f>
+        <f t="shared" ref="E35:E66" si="7">(C35-x_bar)</f>
         <v>1110.5405405405404</v>
       </c>
       <c r="F35" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8103.9444850255659</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1233300.2921840756</v>
       </c>
       <c r="H35" s="19">
-        <f>beta_0+beta_1*C35</f>
+        <f t="shared" ref="H35:H66" si="8">beta_0+beta_1*C35</f>
         <v>14.624406997160747</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.62440699716074732</v>
       </c>
     </row>
@@ -3493,27 +3493,27 @@
         <v>2830</v>
       </c>
       <c r="D36" s="17">
-        <f>(B36-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-1.2972972972972983</v>
       </c>
       <c r="E36" s="17">
-        <f>(C36-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-189.45945945945959</v>
       </c>
       <c r="F36" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>245.78524470416397</v>
       </c>
       <c r="G36" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35894.886778670611</v>
       </c>
       <c r="H36" s="19">
-        <f>beta_0+beta_1*C36</f>
+        <f t="shared" si="8"/>
         <v>22.435699852759875</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.4356998527598748</v>
       </c>
     </row>
@@ -3528,27 +3528,27 @@
         <v>4060</v>
       </c>
       <c r="D37" s="17">
-        <f>(B37-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-0.29729729729729826</v>
       </c>
       <c r="E37" s="17">
-        <f>(C37-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>1040.5405405405404</v>
       </c>
       <c r="F37" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-309.34989043097249</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1082724.6165084001</v>
       </c>
       <c r="H37" s="19">
-        <f>beta_0+beta_1*C37</f>
+        <f t="shared" si="8"/>
         <v>15.045015074000702</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.9549849259992982</v>
       </c>
     </row>
@@ -3563,27 +3563,27 @@
         <v>3310</v>
       </c>
       <c r="D38" s="17">
-        <f>(B38-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E38" s="17">
-        <f>(C38-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>290.54054054054041</v>
       </c>
       <c r="F38" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-667.45799853907954</v>
       </c>
       <c r="G38" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>84413.8056975894</v>
       </c>
       <c r="H38" s="19">
-        <f>beta_0+beta_1*C38</f>
+        <f t="shared" si="8"/>
         <v>19.551530183000196</v>
       </c>
       <c r="I38" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.55153018300019596</v>
       </c>
     </row>
@@ -3598,27 +3598,27 @@
         <v>3300</v>
       </c>
       <c r="D39" s="17">
-        <f>(B39-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E39" s="17">
-        <f>(C39-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>280.54054054054041</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-644.48502556610663</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>78702.994886778601</v>
       </c>
       <c r="H39" s="19">
-        <f>beta_0+beta_1*C39</f>
+        <f t="shared" si="8"/>
         <v>19.611617051120191</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.61161705112019149</v>
       </c>
     </row>
@@ -3633,27 +3633,27 @@
         <v>3690</v>
       </c>
       <c r="D40" s="17">
-        <f>(B40-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E40" s="17">
-        <f>(C40-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>670.54054054054041</v>
       </c>
       <c r="F40" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2210.9715120525934</v>
       </c>
       <c r="G40" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>449624.61650840013</v>
       </c>
       <c r="H40" s="19">
-        <f>beta_0+beta_1*C40</f>
+        <f t="shared" si="8"/>
         <v>17.268229194440451</v>
       </c>
       <c r="I40" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.73177080555954888</v>
       </c>
     </row>
@@ -3668,27 +3668,27 @@
         <v>3370</v>
       </c>
       <c r="D41" s="17">
-        <f>(B41-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E41" s="17">
-        <f>(C41-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>350.54054054054041</v>
       </c>
       <c r="F41" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-805.29583637691746</v>
       </c>
       <c r="G41" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>122878.67056245425</v>
       </c>
       <c r="H41" s="19">
-        <f>beta_0+beta_1*C41</f>
+        <f t="shared" si="8"/>
         <v>19.191008974280237</v>
       </c>
       <c r="I41" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.191008974280237</v>
       </c>
     </row>
@@ -3703,27 +3703,27 @@
         <v>2730</v>
       </c>
       <c r="D42" s="17">
-        <f>(B42-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>2.7027027027027017</v>
       </c>
       <c r="E42" s="17">
-        <f>(C42-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-289.45945945945959</v>
       </c>
       <c r="F42" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-782.32286340394455</v>
       </c>
       <c r="G42" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>83786.778670562533</v>
       </c>
       <c r="H42" s="19">
-        <f>beta_0+beta_1*C42</f>
+        <f t="shared" si="8"/>
         <v>23.036568533959805</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.96343146604019481</v>
       </c>
     </row>
@@ -3738,27 +3738,27 @@
         <v>4030</v>
       </c>
       <c r="D43" s="17">
-        <f>(B43-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-5.2972972972972983</v>
       </c>
       <c r="E43" s="17">
-        <f>(C43-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>1010.5405405405404</v>
       </c>
       <c r="F43" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5353.133674214756</v>
       </c>
       <c r="G43" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1021192.1840759676</v>
       </c>
       <c r="H43" s="19">
-        <f>beta_0+beta_1*C43</f>
+        <f t="shared" si="8"/>
         <v>15.225275678360681</v>
       </c>
       <c r="I43" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.7747243216393187</v>
       </c>
     </row>
@@ -3773,27 +3773,27 @@
         <v>3260</v>
       </c>
       <c r="D44" s="17">
-        <f>(B44-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>6.7027027027027017</v>
       </c>
       <c r="E44" s="17">
-        <f>(C44-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>240.54054054054041</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1612.271731190649</v>
       </c>
       <c r="G44" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>57859.751643535361</v>
       </c>
       <c r="H44" s="19">
-        <f>beta_0+beta_1*C44</f>
+        <f t="shared" si="8"/>
         <v>19.851964523600163</v>
       </c>
       <c r="I44" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.1480354763998371</v>
       </c>
     </row>
@@ -3808,27 +3808,27 @@
         <v>1800</v>
       </c>
       <c r="D45" s="17">
-        <f>(B45-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>12.702702702702702</v>
       </c>
       <c r="E45" s="17">
-        <f>(C45-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-1219.4594594594596</v>
       </c>
       <c r="F45" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-15490.430971512053</v>
       </c>
       <c r="G45" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1487081.3732651575</v>
       </c>
       <c r="H45" s="19">
-        <f>beta_0+beta_1*C45</f>
+        <f t="shared" si="8"/>
         <v>28.62464726911918</v>
       </c>
       <c r="I45" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.3753527308808202</v>
       </c>
     </row>
@@ -3843,27 +3843,27 @@
         <v>2200</v>
       </c>
       <c r="D46" s="17">
-        <f>(B46-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E46" s="17">
-        <f>(C46-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-819.45945945945959</v>
       </c>
       <c r="F46" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3034.2147552958363</v>
       </c>
       <c r="G46" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>671513.80569758965</v>
       </c>
       <c r="H46" s="19">
-        <f>beta_0+beta_1*C46</f>
+        <f t="shared" si="8"/>
         <v>26.221172544319451</v>
       </c>
       <c r="I46" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.221172544319451</v>
       </c>
     </row>
@@ -3878,27 +3878,27 @@
         <v>2520</v>
       </c>
       <c r="D47" s="17">
-        <f>(B47-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>4.7027027027027017</v>
       </c>
       <c r="E47" s="17">
-        <f>(C47-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-499.45945945945959</v>
       </c>
       <c r="F47" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2348.8093498904313</v>
       </c>
       <c r="G47" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>249459.75164353556</v>
       </c>
       <c r="H47" s="19">
-        <f>beta_0+beta_1*C47</f>
+        <f t="shared" si="8"/>
         <v>24.298392764479665</v>
       </c>
       <c r="I47" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7016072355203349</v>
       </c>
     </row>
@@ -3913,27 +3913,27 @@
         <v>3330</v>
       </c>
       <c r="D48" s="17">
-        <f>(B48-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E48" s="17">
-        <f>(C48-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>310.54054054054041</v>
       </c>
       <c r="F48" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1023.944485025566</v>
       </c>
       <c r="G48" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>96435.427319211012</v>
       </c>
       <c r="H48" s="19">
-        <f>beta_0+beta_1*C48</f>
+        <f t="shared" si="8"/>
         <v>19.431356446760212</v>
       </c>
       <c r="I48" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.431356446760212</v>
       </c>
     </row>
@@ -3948,27 +3948,27 @@
         <v>3700</v>
       </c>
       <c r="D49" s="17">
-        <f>(B49-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E49" s="17">
-        <f>(C49-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>680.54054054054041</v>
       </c>
       <c r="F49" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2243.9444850255663</v>
       </c>
       <c r="G49" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>463135.4273192109</v>
       </c>
       <c r="H49" s="19">
-        <f>beta_0+beta_1*C49</f>
+        <f t="shared" si="8"/>
         <v>17.208142326320459</v>
       </c>
       <c r="I49" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.79185767367954085</v>
       </c>
     </row>
@@ -3983,27 +3983,27 @@
         <v>3470</v>
       </c>
       <c r="D50" s="17">
-        <f>(B50-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E50" s="17">
-        <f>(C50-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>450.54054054054041</v>
       </c>
       <c r="F50" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1485.5661066471878</v>
       </c>
       <c r="G50" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>202986.77867056234</v>
       </c>
       <c r="H50" s="19">
-        <f>beta_0+beta_1*C50</f>
+        <f t="shared" si="8"/>
         <v>18.590140293080303</v>
       </c>
       <c r="I50" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.59014029308030302</v>
       </c>
     </row>
@@ -4018,27 +4018,27 @@
         <v>3210</v>
       </c>
       <c r="D51" s="17">
-        <f>(B51-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E51" s="17">
-        <f>(C51-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>190.54054054054041</v>
       </c>
       <c r="F51" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-437.72826880934974</v>
       </c>
       <c r="G51" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36305.697589481322</v>
       </c>
       <c r="H51" s="19">
-        <f>beta_0+beta_1*C51</f>
+        <f t="shared" si="8"/>
         <v>20.15239886420013</v>
       </c>
       <c r="I51" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.1523988642001299</v>
       </c>
     </row>
@@ -4053,27 +4053,27 @@
         <v>3200</v>
       </c>
       <c r="D52" s="17">
-        <f>(B52-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E52" s="17">
-        <f>(C52-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>180.54054054054041</v>
       </c>
       <c r="F52" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-414.75529583637677</v>
       </c>
       <c r="G52" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>32594.886778670512</v>
       </c>
       <c r="H52" s="19">
-        <f>beta_0+beta_1*C52</f>
+        <f t="shared" si="8"/>
         <v>20.212485732320122</v>
       </c>
       <c r="I52" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.2124857323201219</v>
       </c>
     </row>
@@ -4088,27 +4088,27 @@
         <v>3420</v>
       </c>
       <c r="D53" s="17">
-        <f>(B53-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E53" s="17">
-        <f>(C53-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>400.54054054054041</v>
       </c>
       <c r="F53" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-920.16070124178236</v>
       </c>
       <c r="G53" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>160432.72461650829</v>
       </c>
       <c r="H53" s="19">
-        <f>beta_0+beta_1*C53</f>
+        <f t="shared" si="8"/>
         <v>18.89057463368027</v>
       </c>
       <c r="I53" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.10942536631972999</v>
       </c>
     </row>
@@ -4123,27 +4123,27 @@
         <v>2690</v>
       </c>
       <c r="D54" s="17">
-        <f>(B54-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>2.7027027027027017</v>
       </c>
       <c r="E54" s="17">
-        <f>(C54-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-329.45945945945959</v>
       </c>
       <c r="F54" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-890.43097151205268</v>
       </c>
       <c r="G54" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>108543.53542731929</v>
       </c>
       <c r="H54" s="19">
-        <f>beta_0+beta_1*C54</f>
+        <f t="shared" si="8"/>
         <v>23.27691600643978</v>
       </c>
       <c r="I54" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.7230839935602198</v>
       </c>
     </row>
@@ -4158,27 +4158,27 @@
         <v>2830</v>
       </c>
       <c r="D55" s="17">
-        <f>(B55-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-4.2972972972972983</v>
       </c>
       <c r="E55" s="17">
-        <f>(C55-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-189.45945945945959</v>
       </c>
       <c r="F55" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>814.16362308254281</v>
       </c>
       <c r="G55" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35894.886778670611</v>
       </c>
       <c r="H55" s="19">
-        <f>beta_0+beta_1*C55</f>
+        <f t="shared" si="8"/>
         <v>22.435699852759875</v>
       </c>
       <c r="I55" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.4356998527598748</v>
       </c>
     </row>
@@ -4193,27 +4193,27 @@
         <v>2070</v>
       </c>
       <c r="D56" s="17">
-        <f>(B56-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>1.7027027027027017</v>
       </c>
       <c r="E56" s="17">
-        <f>(C56-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-949.45945945945959</v>
       </c>
       <c r="F56" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1616.6471877282681</v>
       </c>
       <c r="G56" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>901473.26515704917</v>
       </c>
       <c r="H56" s="19">
-        <f>beta_0+beta_1*C56</f>
+        <f t="shared" si="8"/>
         <v>27.002301829879364</v>
       </c>
       <c r="I56" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-4.0023018298793644</v>
       </c>
     </row>
@@ -4228,27 +4228,27 @@
         <v>2650</v>
       </c>
       <c r="D57" s="17">
-        <f>(B57-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E57" s="17">
-        <f>(C57-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-369.45945945945959</v>
       </c>
       <c r="F57" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1367.9985390796203</v>
       </c>
       <c r="G57" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>136500.29218407607</v>
       </c>
       <c r="H57" s="19">
-        <f>beta_0+beta_1*C57</f>
+        <f t="shared" si="8"/>
         <v>23.517263478919752</v>
       </c>
       <c r="I57" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.4827365210802483</v>
       </c>
     </row>
@@ -4263,27 +4263,27 @@
         <v>2370</v>
       </c>
       <c r="D58" s="17">
-        <f>(B58-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>1.7027027027027017</v>
       </c>
       <c r="E58" s="17">
-        <f>(C58-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-649.45945945945959</v>
       </c>
       <c r="F58" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1105.8363769174575</v>
       </c>
       <c r="G58" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>421797.58948137343</v>
       </c>
       <c r="H58" s="19">
-        <f>beta_0+beta_1*C58</f>
+        <f t="shared" si="8"/>
         <v>25.199695786279563</v>
       </c>
       <c r="I58" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.1996957862795625</v>
       </c>
     </row>
@@ -4298,27 +4298,27 @@
         <v>2020</v>
       </c>
       <c r="D59" s="17">
-        <f>(B59-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>13.702702702702702</v>
       </c>
       <c r="E59" s="17">
-        <f>(C59-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-999.45945945945959</v>
       </c>
       <c r="F59" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-13695.295836376918</v>
       </c>
       <c r="G59" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>998919.21110299521</v>
       </c>
       <c r="H59" s="19">
-        <f>beta_0+beta_1*C59</f>
+        <f t="shared" si="8"/>
         <v>27.302736170479328</v>
       </c>
       <c r="I59" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.6972638295206721</v>
       </c>
     </row>
@@ -4333,27 +4333,27 @@
         <v>2280</v>
       </c>
       <c r="D60" s="17">
-        <f>(B60-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>2.7027027027027017</v>
       </c>
       <c r="E60" s="17">
-        <f>(C60-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-739.45945945945959</v>
       </c>
       <c r="F60" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1998.5390796201605</v>
       </c>
       <c r="G60" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>546800.29218407616</v>
       </c>
       <c r="H60" s="19">
-        <f>beta_0+beta_1*C60</f>
+        <f t="shared" si="8"/>
         <v>25.740477599359505</v>
       </c>
       <c r="I60" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.7404775993595045</v>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
         <v>2750</v>
       </c>
       <c r="D61" s="17">
-        <f>(B61-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-0.29729729729729826</v>
       </c>
       <c r="E61" s="17">
-        <f>(C61-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-269.45945945945959</v>
       </c>
       <c r="F61" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80.109569028488252</v>
       </c>
       <c r="G61" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>72608.400292184146</v>
       </c>
       <c r="H61" s="19">
-        <f>beta_0+beta_1*C61</f>
+        <f t="shared" si="8"/>
         <v>22.916394797719821</v>
       </c>
       <c r="I61" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.9163947977198212</v>
       </c>
     </row>
@@ -4403,27 +4403,27 @@
         <v>2130</v>
       </c>
       <c r="D62" s="17">
-        <f>(B62-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-0.29729729729729826</v>
       </c>
       <c r="E62" s="17">
-        <f>(C62-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-889.45945945945959</v>
       </c>
       <c r="F62" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>264.43389335281319</v>
       </c>
       <c r="G62" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>791138.13002191402</v>
       </c>
       <c r="H62" s="19">
-        <f>beta_0+beta_1*C62</f>
+        <f t="shared" si="8"/>
         <v>26.641780621159405</v>
       </c>
       <c r="I62" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.6417806211594055</v>
       </c>
     </row>
@@ -4438,27 +4438,27 @@
         <v>2240</v>
       </c>
       <c r="D63" s="17">
-        <f>(B63-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E63" s="17">
-        <f>(C63-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-779.45945945945959</v>
       </c>
       <c r="F63" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2886.106647187728</v>
       </c>
       <c r="G63" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>607557.04894083296</v>
       </c>
       <c r="H63" s="19">
-        <f>beta_0+beta_1*C63</f>
+        <f t="shared" si="8"/>
         <v>25.980825071839476</v>
       </c>
       <c r="I63" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.98082507183947598</v>
       </c>
     </row>
@@ -4473,27 +4473,27 @@
         <v>1760</v>
       </c>
       <c r="D64" s="17">
-        <f>(B64-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>6.7027027027027017</v>
       </c>
       <c r="E64" s="17">
-        <f>(C64-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-1259.4594594594596</v>
       </c>
       <c r="F64" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8441.7823228634043</v>
       </c>
       <c r="G64" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1586238.1300219141</v>
       </c>
       <c r="H64" s="19">
-        <f>beta_0+beta_1*C64</f>
+        <f t="shared" si="8"/>
         <v>28.864994741599155</v>
       </c>
       <c r="I64" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.86499474159915479</v>
       </c>
     </row>
@@ -4508,27 +4508,27 @@
         <v>1980</v>
       </c>
       <c r="D65" s="17">
-        <f>(B65-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>8.7027027027027017</v>
       </c>
       <c r="E65" s="17">
-        <f>(C65-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>-1039.4594594594596</v>
       </c>
       <c r="F65" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9046.1066471877293</v>
       </c>
       <c r="G65" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1080475.967859752</v>
       </c>
       <c r="H65" s="19">
-        <f>beta_0+beta_1*C65</f>
+        <f t="shared" si="8"/>
         <v>27.543083642959303</v>
       </c>
       <c r="I65" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.4569163570406971</v>
       </c>
     </row>
@@ -4543,27 +4543,27 @@
         <v>3420</v>
       </c>
       <c r="D66" s="17">
-        <f>(B66-Y_bar)</f>
+        <f t="shared" si="6"/>
         <v>-7.2972972972972983</v>
       </c>
       <c r="E66" s="17">
-        <f>(C66-x_bar)</f>
+        <f t="shared" si="7"/>
         <v>400.54054054054041</v>
       </c>
       <c r="F66" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2922.8634039444846</v>
       </c>
       <c r="G66" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>160432.72461650829</v>
       </c>
       <c r="H66" s="19">
-        <f>beta_0+beta_1*C66</f>
+        <f t="shared" si="8"/>
         <v>18.89057463368027</v>
       </c>
       <c r="I66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-4.89057463368027</v>
       </c>
     </row>
@@ -4578,27 +4578,27 @@
         <v>1830</v>
       </c>
       <c r="D67" s="17">
-        <f>(B67-Y_bar)</f>
+        <f t="shared" ref="D67:D76" si="9">(B67-Y_bar)</f>
         <v>4.7027027027027017</v>
       </c>
       <c r="E67" s="17">
-        <f>(C67-x_bar)</f>
+        <f t="shared" ref="E67:E76" si="10">(C67-x_bar)</f>
         <v>-1189.4594594594596</v>
       </c>
       <c r="F67" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5593.674214755295</v>
       </c>
       <c r="G67" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1414813.8056975899</v>
       </c>
       <c r="H67" s="19">
-        <f>beta_0+beta_1*C67</f>
+        <f t="shared" ref="H67:H76" si="11">beta_0+beta_1*C67</f>
         <v>28.4443866647592</v>
       </c>
       <c r="I67" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.4443866647592003</v>
       </c>
     </row>
@@ -4613,27 +4613,27 @@
         <v>2050</v>
       </c>
       <c r="D68" s="17">
-        <f>(B68-Y_bar)</f>
+        <f t="shared" si="9"/>
         <v>13.702702702702702</v>
       </c>
       <c r="E68" s="17">
-        <f>(C68-x_bar)</f>
+        <f t="shared" si="10"/>
         <v>-969.45945945945959</v>
       </c>
       <c r="F68" s="17">
-        <f t="shared" ref="F68:F76" si="3">D68*E68</f>
+        <f t="shared" ref="F68:F76" si="12">D68*E68</f>
         <v>-13284.214755295838</v>
       </c>
       <c r="G68" s="18">
-        <f t="shared" ref="G68:G76" si="4">E68^2</f>
+        <f t="shared" ref="G68:G76" si="13">E68^2</f>
         <v>939851.64353542763</v>
       </c>
       <c r="H68" s="19">
-        <f>beta_0+beta_1*C68</f>
+        <f t="shared" si="11"/>
         <v>27.122475566119348</v>
       </c>
       <c r="I68" s="20">
-        <f t="shared" ref="I68:I76" si="5">B68-H68</f>
+        <f t="shared" ref="I68:I76" si="14">B68-H68</f>
         <v>7.8775244338806516</v>
       </c>
     </row>
@@ -4648,27 +4648,27 @@
         <v>2410</v>
       </c>
       <c r="D69" s="17">
-        <f>(B69-Y_bar)</f>
+        <f t="shared" si="9"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E69" s="17">
-        <f>(C69-x_bar)</f>
+        <f t="shared" si="10"/>
         <v>-609.45945945945959</v>
       </c>
       <c r="F69" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2009.5690284879483</v>
       </c>
       <c r="G69" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>371440.83272461669</v>
       </c>
       <c r="H69" s="19">
-        <f>beta_0+beta_1*C69</f>
+        <f t="shared" si="11"/>
         <v>24.959348313799591</v>
       </c>
       <c r="I69" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-6.9593483137995911</v>
       </c>
     </row>
@@ -4683,27 +4683,27 @@
         <v>2200</v>
       </c>
       <c r="D70" s="17">
-        <f>(B70-Y_bar)</f>
+        <f t="shared" si="9"/>
         <v>9.7027027027027017</v>
       </c>
       <c r="E70" s="17">
-        <f>(C70-x_bar)</f>
+        <f t="shared" si="10"/>
         <v>-819.45945945945959</v>
       </c>
       <c r="F70" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-7950.9715120525934</v>
       </c>
       <c r="G70" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>671513.80569758965</v>
       </c>
       <c r="H70" s="19">
-        <f>beta_0+beta_1*C70</f>
+        <f t="shared" si="11"/>
         <v>26.221172544319451</v>
       </c>
       <c r="I70" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.778827455680549</v>
       </c>
     </row>
@@ -4718,27 +4718,27 @@
         <v>2670</v>
       </c>
       <c r="D71" s="17">
-        <f>(B71-Y_bar)</f>
+        <f t="shared" si="9"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E71" s="17">
-        <f>(C71-x_bar)</f>
+        <f t="shared" si="10"/>
         <v>-349.45945945945959</v>
       </c>
       <c r="F71" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1152.2717311906508</v>
       </c>
       <c r="G71" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>122121.91380569768</v>
       </c>
       <c r="H71" s="19">
-        <f>beta_0+beta_1*C71</f>
+        <f t="shared" si="11"/>
         <v>23.397089742679768</v>
       </c>
       <c r="I71" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-5.3970897426797677</v>
       </c>
     </row>
@@ -4753,27 +4753,27 @@
         <v>2160</v>
       </c>
       <c r="D72" s="17">
-        <f>(B72-Y_bar)</f>
+        <f t="shared" si="9"/>
         <v>1.7027027027027017</v>
       </c>
       <c r="E72" s="17">
-        <f>(C72-x_bar)</f>
+        <f t="shared" si="10"/>
         <v>-859.45945945945959</v>
       </c>
       <c r="F72" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-1463.403944485025</v>
       </c>
       <c r="G72" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>738670.56245434645</v>
       </c>
       <c r="H72" s="19">
-        <f>beta_0+beta_1*C72</f>
+        <f t="shared" si="11"/>
         <v>26.461520016799422</v>
       </c>
       <c r="I72" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-3.4615200167994225</v>
       </c>
     </row>
@@ -4788,27 +4788,27 @@
         <v>2040</v>
       </c>
       <c r="D73" s="17">
-        <f>(B73-Y_bar)</f>
+        <f t="shared" si="9"/>
         <v>19.702702702702702</v>
       </c>
       <c r="E73" s="17">
-        <f>(C73-x_bar)</f>
+        <f t="shared" si="10"/>
         <v>-979.45945945945959</v>
       </c>
       <c r="F73" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-19297.998539079621</v>
       </c>
       <c r="G73" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>959340.83272461675</v>
       </c>
       <c r="H73" s="19">
-        <f>beta_0+beta_1*C73</f>
+        <f t="shared" si="11"/>
         <v>27.182562434239344</v>
       </c>
       <c r="I73" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>13.817437565760656</v>
       </c>
     </row>
@@ -4823,27 +4823,27 @@
         <v>1930</v>
       </c>
       <c r="D74" s="17">
-        <f>(B74-Y_bar)</f>
+        <f t="shared" si="9"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E74" s="17">
-        <f>(C74-x_bar)</f>
+        <f t="shared" si="10"/>
         <v>-1089.4594594594596</v>
       </c>
       <c r="F74" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-4033.9444850255654</v>
       </c>
       <c r="G74" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1186921.9138056978</v>
       </c>
       <c r="H74" s="19">
-        <f>beta_0+beta_1*C74</f>
+        <f t="shared" si="11"/>
         <v>27.843517983559266</v>
       </c>
       <c r="I74" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-2.8435179835592663</v>
       </c>
     </row>
@@ -4858,27 +4858,27 @@
         <v>1990</v>
       </c>
       <c r="D75" s="17">
-        <f>(B75-Y_bar)</f>
+        <f t="shared" si="9"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E75" s="17">
-        <f>(C75-x_bar)</f>
+        <f t="shared" si="10"/>
         <v>-1029.4594594594596</v>
       </c>
       <c r="F75" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-3811.7823228634034</v>
       </c>
       <c r="G75" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1059786.7786705627</v>
       </c>
       <c r="H75" s="19">
-        <f>beta_0+beta_1*C75</f>
+        <f t="shared" si="11"/>
         <v>27.482996774839307</v>
       </c>
       <c r="I75" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-2.4829967748393074</v>
       </c>
     </row>
@@ -4893,27 +4893,27 @@
         <v>3170</v>
       </c>
       <c r="D76" s="21">
-        <f>(B76-Y_bar)</f>
+        <f t="shared" si="9"/>
         <v>-4.2972972972972983</v>
       </c>
       <c r="E76" s="21">
-        <f>(C76-x_bar)</f>
+        <f t="shared" si="10"/>
         <v>150.54054054054041</v>
       </c>
       <c r="F76" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-646.91745799853868</v>
       </c>
       <c r="G76" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>22662.45434623809</v>
       </c>
       <c r="H76" s="23">
-        <f>beta_0+beta_1*C76</f>
+        <f t="shared" si="11"/>
         <v>20.392746336680101</v>
       </c>
       <c r="I76" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-3.3927463366801014</v>
       </c>
     </row>
@@ -4949,11 +4949,11 @@
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="37">
-        <f t="shared" ref="D78:E78" si="6">SUM(D3:D76)</f>
+        <f t="shared" ref="D78:E78" si="15">SUM(D3:D76)</f>
         <v>7.1054273576010019E-14</v>
       </c>
       <c r="E78" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-3.5470293369144201E-11</v>
       </c>
       <c r="F78" s="29">

--- a/static/media/econometrics/lecture 02/OLS (simple example).xlsx
+++ b/static/media/econometrics/lecture 02/OLS (simple example).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/lecture 02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{7F664532-745B-410A-BFA2-96BDBE3584F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83303E6B-6E27-4A8A-86A2-A8DF0DEB81C8}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{7F664532-745B-410A-BFA2-96BDBE3584F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3113B0C-A986-44BD-BE57-57FE3F9B8048}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15195" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15195" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple OLS example" sheetId="1" r:id="rId1"/>
@@ -2259,8 +2259,8 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/media/econometrics/lecture 02/OLS (simple example).xlsx
+++ b/static/media/econometrics/lecture 02/OLS (simple example).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/lecture 02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{7F664532-745B-410A-BFA2-96BDBE3584F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3113B0C-A986-44BD-BE57-57FE3F9B8048}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{787E728A-6C0D-4FB3-98D5-051C77C319E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56EAADB7-F5E6-4953-B960-C45EAC9391E0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15195" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15195" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple OLS example" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   <definedNames>
     <definedName name="beta_0">'Simple OLS example'!$B$81</definedName>
     <definedName name="beta_1">'Simple OLS example'!$B$82</definedName>
+    <definedName name="N">'Simple OLS example'!$A$76</definedName>
     <definedName name="x_bar">'Simple OLS example'!$C$77</definedName>
     <definedName name="Y_bar">'Simple OLS example'!$B$77</definedName>
   </definedNames>
@@ -54,9 +55,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -64,9 +62,6 @@
   </si>
   <si>
     <t>(x - x_bar)</t>
-  </si>
-  <si>
-    <t>(Y - Y_bar)</t>
   </si>
   <si>
     <t>(a)</t>
@@ -90,10 +85,16 @@
     <t>beta_1:</t>
   </si>
   <si>
-    <t>Y_hat</t>
+    <t>e</t>
   </si>
   <si>
-    <t>e</t>
+    <t>y_hat</t>
+  </si>
+  <si>
+    <t>(y - y_bar)</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -561,8 +562,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3588942613478677E-2"/>
-                  <c:y val="-0.72059792149786306"/>
+                  <c:x val="2.4952580671764001E-2"/>
+                  <c:y val="-0.72361451203322713"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1919,16 +1920,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2256,11 +2257,11 @@
   <sheetPr>
     <tabColor rgb="FF00447C"/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,10 +2269,10 @@
     <col min="1" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="1"/>
+    <col min="8" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2282,10 +2283,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2293,41 +2294,39 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>0.1651688284400592</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2397,7 +2396,7 @@
         <v>-2.3111827105202245</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>-1.5773503470397472</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>8.7948608279845075E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>7.515866223928569E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>0.61159706931956137</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -2572,7 +2571,7 @@
         <v>-4.0911939959471511E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>0.26820921263982456</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>-0.12657870016057871</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>-1.0748369920257517E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>0.57733036523911707</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>-2.0064049639205948</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>7.3369828927591421</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -4919,7 +4918,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" s="25">
         <f>AVERAGE(B3:B76)</f>
@@ -4944,7 +4943,7 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -4973,7 +4972,7 @@
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B81" s="39">
         <f>Y_bar-B82*x_bar</f>
@@ -4982,7 +4981,7 @@
     </row>
     <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B82" s="40">
         <f>F78/G78</f>
